--- a/Problem3a(1).xlsx
+++ b/Problem3a(1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bidst\Documents\GitHub\CHEME-5440-7770-PS6-S21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5739C436-3D36-46CF-AA54-25CD25CE3B97}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C1448D-DE31-4672-A342-E0DEC788A481}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{93D4116C-1D9F-4DD9-9519-ABEF5A4BCE63}"/>
   </bookViews>
@@ -16,33 +16,33 @@
     <sheet name="Try 2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">'Try 2'!$E$17:$F$17</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'Try 2'!$G$12</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">1E-23</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Try 2'!$E$17</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Try 2'!$F$17</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Try 2'!$F$17</definedName>
-    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'Try 2'!$F$17</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Try 2'!$F$12</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Try 2'!$G$12</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Try 2'!$G$12</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'Try 2'!$G$12</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">'Try 2'!$E$17</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'Try 2'!$D$19</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.0000000000000000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">'Try 2'!$H$4</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">'Try 2'!$E$2</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">1000</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">1000</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">1000</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>A_max (cm^2)</t>
   </si>
@@ -138,7 +138,7 @@
     <t>Absolute Difference</t>
   </si>
   <si>
-    <t>SUM</t>
+    <t>Note: Difference&lt;&lt;LS,RS</t>
   </si>
 </sst>
 </file>
@@ -178,14 +178,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="2"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="2"/>
@@ -213,19 +205,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -240,29 +233,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,7 +568,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,7 +577,7 @@
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
@@ -632,8 +620,8 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>1.211598381E-7</v>
+      <c r="A2" s="5">
+        <v>1.27362E-7</v>
       </c>
       <c r="C2" s="3">
         <v>9.9999999999999995E-7</v>
@@ -671,28 +659,28 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <f>A2/E17*EXP(-E17/F2)</f>
-        <v>3.9781620574841177E-3</v>
+        <f>A2/F12*EXP(-F12/F2)</f>
+        <v>4.5930708428054429E-3</v>
       </c>
       <c r="B6" s="1">
-        <f>G2*EXP((-0.5*I2*(E17-H2)^2)/(K2*J2))</f>
-        <v>7.4673532427910276E-9</v>
+        <f>G2*EXP((-0.5*I2*(F12-H2)^2)/(K2*J2))</f>
+        <v>8.0309813948064886E-9</v>
       </c>
       <c r="C6" s="1">
         <f>(D2*D2*A6)/(K2*J2*B6)</f>
-        <v>49786861.234380662</v>
+        <v>53448250.82286974</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -709,152 +697,152 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f>(E2-(A6*C2)/(K2*J2))^2</f>
-        <v>49786854.864874996</v>
+        <v>53443073.76070644</v>
       </c>
       <c r="B9" s="1">
         <f>C6</f>
-        <v>49786861.234380662</v>
-      </c>
-      <c r="C9" s="4">
+        <v>53448250.82286974</v>
+      </c>
+      <c r="C9" s="1">
         <f>ABS(A9-B9)</f>
-        <v>6.3695056661963463</v>
-      </c>
+        <v>5177.0621633008122</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="13">
+        <f>G12/C2</f>
+        <v>93187213345.503204</v>
+      </c>
+      <c r="C12" s="13">
+        <f>((E2-G12)/D2)^2*B6</f>
+        <v>93187617094.225662</v>
+      </c>
+      <c r="D12" s="13">
+        <f>ABS(B12-C12)</f>
+        <v>403748.72245788574</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="11">
+        <v>2.4332548079317872E-6</v>
+      </c>
+      <c r="G12" s="11">
+        <v>93187.213345503202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="13">
+        <f>G12/C2</f>
+        <v>93187213345.503204</v>
+      </c>
+      <c r="C13" s="13">
+        <f>(A2*(F12+F2)*EXP(-F12/F2))/(I2*F2*F12^2*(F12-H2))</f>
+        <v>149581608771.52859</v>
+      </c>
+      <c r="D13" s="13">
+        <f>ABS(B13-C13)</f>
+        <v>56394395426.025391</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="10">
-        <f>F17/C2</f>
-        <v>92944016971.387924</v>
-      </c>
-      <c r="C17" s="10">
-        <f>((E2-F17)/D2)^2*B6</f>
-        <v>92944085757.059387</v>
-      </c>
-      <c r="D17" s="10">
-        <f>ABS(B17-C17)</f>
-        <v>68785.671463012695</v>
-      </c>
-      <c r="E17" s="18">
-        <v>2.5000000000000002E-6</v>
-      </c>
-      <c r="F17" s="14">
-        <v>92944.016971387915</v>
-      </c>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="10">
-        <f>F17/C2</f>
-        <v>92944016971.387924</v>
-      </c>
-      <c r="C18" s="10">
-        <f>(A2*(E17+F2)*EXP(-E17/F2))/(I2*F2*E17^2*(E17-H2))</f>
-        <v>111388537609.55525</v>
-      </c>
-      <c r="D18" s="8">
-        <f>ABS(B18-C18)</f>
-        <v>18444520638.167328</v>
-      </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="8"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="10">
-        <f>SUM(D17:D18)</f>
-        <v>18444589423.838791</v>
-      </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
-      <c r="C24" s="5"/>
+      <c r="C24" s="3"/>
       <c r="D24" s="1"/>
     </row>
   </sheetData>
